--- a/questions/Assignment6-ClientCommandTableForA7.xlsx
+++ b/questions/Assignment6-ClientCommandTableForA7.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aditya.vny95\SimplicityStudio\v4_workspace\ecen5823-assignment6-adityavarshney100\questions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23603322-B731-4A7D-B027-B3EDDBB37E47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="State machine" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -28,98 +38,6 @@
     <t>Use this column to denote if BT stack events cause your state machine to advance, you can put an X in the cell to note this. Drawing a bubble diagram of your state machine might also be a good idea.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Commands that may be useful:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t xml:space="preserve">gecko_cmd_le_gap_set_discovery_type()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t xml:space="preserve">gecko_cmd_le_gap_set_discovery_timing()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t xml:space="preserve">gecko_cmd_le_gap_start_discovery()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t xml:space="preserve">gecko_cmd_le_gap_end_procedure()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t xml:space="preserve">gecko_cmd_le_gap_connect()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t xml:space="preserve">gecko_cmd_gatt_discover_primary_services_by_uuid() 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t xml:space="preserve">gecko_cmd_gatt_discover_characteristics_by_uuid()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t xml:space="preserve">gecko_cmd_gatt_set_characteristic_notification()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>gecko_cmd_gatt_send_characteristic_confirmation()</t>
-    </r>
-  </si>
-  <si>
     <t>BT Stack Event ID</t>
   </si>
   <si>
@@ -139,18 +57,6 @@
   </si>
   <si>
     <t>This event is generated on stack boot up</t>
-  </si>
-  <si>
-    <t>gecko_cmd_le_gap_set_discovery_type()</t>
-  </si>
-  <si>
-    <t>As an example</t>
-  </si>
-  <si>
-    <t>more commands etc, 1 per row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can also document in column D values that need to be saved in response to receiving BT stack events. </t>
   </si>
   <si>
     <t>gecko_evt_le_gap_scan_response_id</t>
@@ -230,24 +136,101 @@
   <si>
     <t>This event is generated by the 1 second BT stack timer we started up &amp; use this to perform the 1 second period toggling of the LCD display EXTCOMIN signal, for static charge build-up management</t>
   </si>
+  <si>
+    <t>gecko_cmd_le_gap_set_discovery_type(uint8 phys, uint8 scan_type)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Commands that may be useful:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>gecko_cmd_le_gap_set_discovery_type()
+gecko_cmd_le_gap_set_discovery_timing()
+gecko_cmd_le_gap_start_discovery()
+gecko_cmd_le_gap_end_procedure()
+gecko_cmd_le_gap_connect()
+gecko_cmd_gatt_discover_primary_services_by_uuid() 
+gecko_cmd_gatt_discover_characteristics_by_uuid()
+gecko_cmd_gatt_set_characteristic_notification()
+gecko_cmd_gatt_send_characteristic_confirmation()</t>
+    </r>
+  </si>
+  <si>
+    <t>gecko_cmd_le_gap_set_discovery_timing(uint8 phys, uint16 scan_interval, uint16 scan_window)</t>
+  </si>
+  <si>
+    <t>Parameters: phys- 1:LE 1M PHY, Scan type- Passive Scanning</t>
+  </si>
+  <si>
+    <t>Parameters: phys- 1:LE 1M PHY, Scan interval- 10, Scan_window - 10ms</t>
+  </si>
+  <si>
+    <t>gecko_cmd_le_gap_start_discovery(uint8 scanning_phy, uint8 mode)</t>
+  </si>
+  <si>
+    <t>gecko_cmd_le_gap_end_procedure()</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>gecko_cmd_le_gap_connect(bd_addr address, uint8 address_type, uint8 initiating_phy)</t>
+  </si>
+  <si>
+    <t>Parameters: scanning_phy- 1:LE 1M PHY, mode- Bluetooth discovery mode</t>
+  </si>
+  <si>
+    <t>Parameters: address- Address of the device to connect to, address_type- Address type of the device to connect to, initiating_phy - 1:LE 1M PHY</t>
+  </si>
+  <si>
+    <t>gecko_cmd_gatt_discover_primary_services_by_uuid(uint8 connection, uint8 uuid_len, const uint8 *uuid_data)</t>
+  </si>
+  <si>
+    <t>Parameters: scanning_phy- 1:LE 1M PHY, mode: bluetooth discovery mode</t>
+  </si>
+  <si>
+    <t>gecko_cmd_gatt_discover_characteristics_by_uuid(uint8 connection, uint32 service, uint8 uuid_len, const uint8 *uuid_data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Parameters - None, This command can be used to end a current GAP procedure.</t>
+  </si>
+  <si>
+    <t>This command can be used to discover all the characteristics of the specified GATT service in a remote GATT database having the specified UUID.</t>
+  </si>
+  <si>
+    <t>gecko_cmd_gatt_set_characteristic_notification(uint8 connection, uint16 characteristic, uint8 flags)</t>
+  </si>
+  <si>
+    <t>Parameters: connection, characteristic- GATT characteristic handle, flags - characteristic client config flags</t>
+  </si>
+  <si>
+    <t>gecko_cmd_gatt_send_characteristic_confirmation(uint8 connection)</t>
+  </si>
+  <si>
+    <t>This command must be used to send a characteristic confirmation to a remote GATT server after receiving an indication.</t>
+  </si>
+  <si>
+    <t>Received Indication</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
@@ -255,7 +238,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -295,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -318,87 +301,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,26 +404,134 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff2236ff"/>
-      <rgbColor rgb="ff4d8f72"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF2236FF"/>
+      <rgbColor rgb="FF4D8F72"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>236968</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>94319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A0FD49-7B34-4251-A2E1-0539C533E6EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562225" y="419100"/>
+          <a:ext cx="9257143" cy="7447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -559,7 +663,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -635,7 +739,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -654,7 +758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -684,7 +788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -710,7 +814,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -736,7 +840,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -762,7 +866,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -788,7 +892,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -814,7 +918,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,7 +944,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,7 +970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,7 +996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -905,9 +1009,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -922,7 +1032,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -930,7 +1040,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -949,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1027,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,7 +1241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,7 +1267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,9 +1306,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1212,7 +1328,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1231,7 +1347,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +1455,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +1481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +1533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,7 +1585,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,429 +1598,496 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F45"/>
+  <dimension ref="B1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5781" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5781" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.9609" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.6172" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.8906" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54" style="1" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="2:6" ht="14.65" customHeight="1">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="12.05" customHeight="1">
-      <c r="B2" t="s" s="3">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="2:6" ht="12" customHeight="1">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" ht="119.55" customHeight="1">
-      <c r="B3" t="s" s="5">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" ht="119.65" customHeight="1">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" ht="12" customHeight="1">
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="12" customHeight="1">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" ht="12.05" customHeight="1">
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" ht="12.05" customHeight="1">
-      <c r="B5" t="s" s="3">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s" s="5">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s" s="5">
+    </row>
+    <row r="6" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="B6" t="s" s="7">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" t="s" s="10">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="2:6" ht="24">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="24">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="26.25" customHeight="1">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" t="s" s="14">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s" s="15">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="2:6" ht="27.75" customHeight="1">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="42.75" customHeight="1">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" ht="37.55" customHeight="1">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" t="s" s="14">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s" s="15">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="2:6" ht="27" customHeight="1">
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" ht="25.55" customHeight="1">
-      <c r="B12" t="s" s="7">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" t="s" s="16">
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6" ht="27" customHeight="1">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="2:6" ht="61.5" customHeight="1">
+      <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" ht="25.55" customHeight="1">
-      <c r="B16" t="s" s="7">
+      <c r="C22" s="18"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" t="s" s="10">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:6" ht="27.75" customHeight="1">
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="B19" t="s" s="7">
+      <c r="C26" s="12"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" t="s" s="10">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6" ht="27.75" customHeight="1">
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" ht="61.55" customHeight="1">
-      <c r="B22" t="s" s="7">
+      <c r="C31" s="12"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="9"/>
-      <c r="E22" t="s" s="10">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="2:6" ht="27" customHeight="1">
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B33" s="11"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B35" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="B23" s="21"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="B24" s="21"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="B25" s="21"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" ht="25.55" customHeight="1">
-      <c r="B26" t="s" s="7">
+      <c r="C35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="9"/>
-      <c r="E26" t="s" s="10">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="2:6" ht="27" customHeight="1">
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B38" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" ht="25.55" customHeight="1">
-      <c r="B31" t="s" s="7">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="9"/>
-      <c r="E31" t="s" s="10">
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="2:6" ht="49.5" customHeight="1">
+      <c r="B42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" ht="13.55" customHeight="1">
-      <c r="B33" s="12"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" ht="25.55" customHeight="1">
-      <c r="B35" t="s" s="7">
+      <c r="C42" s="12"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" ht="13.55" customHeight="1">
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" ht="13.55" customHeight="1">
-      <c r="B38" t="s" s="23">
-        <v>31</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" ht="13.55" customHeight="1">
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" ht="13.55" customHeight="1">
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" ht="13.55" customHeight="1">
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" ht="49.55" customHeight="1">
-      <c r="B42" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="9"/>
-      <c r="E42" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" ht="13.55" customHeight="1">
-      <c r="B43" s="24"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" ht="13.55" customHeight="1">
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" ht="13.55" customHeight="1">
-      <c r="B45" s="24"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="9"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B43" s="22"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B45" s="22"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA3AE77-7B72-4A7F-A02A-0F57616409EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>